--- a/Documenti/UC Gestione Posta.xlsx
+++ b/Documenti/UC Gestione Posta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">IDENTIFICATORE </t>
   </si>
   <si>
-    <t xml:space="preserve">ID:10</t>
+    <t xml:space="preserve">ID:4</t>
   </si>
   <si>
     <t xml:space="preserve">BREVE DESCRIZIONE</t>
@@ -60,7 +60,7 @@
     <t xml:space="preserve">PASSI DEL CASO D'USO</t>
   </si>
   <si>
-    <t xml:space="preserve">1. L'utente seleziona il box "Posta.
+    <t xml:space="preserve">1. L'utente seleziona il box "Posta”.
 2. L'utente sceglie l'azione da compiere:
    2.1. L'utente seleziona il box "Visualizza Posta".
    2.2 L'utente seleziona il box "Invia Messaggio".</t>
@@ -69,7 +69,7 @@
     <t xml:space="preserve">POSTCONDIZIONI</t>
   </si>
   <si>
-    <t xml:space="preserve">L'utente è  in grado di inviare il messaggio.</t>
+    <t xml:space="preserve">L'utente è  in grado di inviare il messaggio o di visualizzare i messaggi ricevuti.</t>
   </si>
   <si>
     <t xml:space="preserve">SEQUENZE DEGLI EVENTI ALTERNATIVE</t>
@@ -180,13 +180,13 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="97.0485829959514"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -238,7 +238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
